--- a/etapa_2/pessoas_recursos/dados/grande_area_br_df.xlsx
+++ b/etapa_2/pessoas_recursos/dados/grande_area_br_df.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -472,10 +451,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>2005</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -485,8 +464,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -496,8 +477,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -507,8 +490,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -518,8 +503,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="A6" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -529,8 +516,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -540,8 +529,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -551,8 +542,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -562,8 +555,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -573,8 +568,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -584,10 +581,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>2006</v>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -597,8 +594,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="A13" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -608,8 +607,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="A14" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -619,8 +620,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -630,8 +633,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -641,8 +646,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="A17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -652,8 +659,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="A18" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -663,8 +672,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="A19" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -674,8 +685,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="A20" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -685,8 +698,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="A21" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -696,10 +711,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>2007</v>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -709,8 +724,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="A23" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -720,8 +737,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="A24" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -731,8 +750,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="A25" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -742,8 +763,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="A26" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -753,8 +776,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="A27" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -764,8 +789,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="A28" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -775,8 +802,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="A29" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -786,8 +815,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="A30" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -797,8 +828,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="A31" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -808,10 +841,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>2008</v>
       </c>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -821,8 +854,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="A33" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -832,8 +867,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="A34" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -843,8 +880,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="A35" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -854,8 +893,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="A36" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -865,8 +906,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="A37" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -876,8 +919,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="A38" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -887,8 +932,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="A39" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -898,8 +945,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="A40" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -909,8 +958,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="A41" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -920,10 +971,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>2009</v>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -933,8 +984,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="A43" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -944,8 +997,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="A44" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -955,8 +1010,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="A45" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -966,8 +1023,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="A46" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -977,8 +1036,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="A47" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -988,8 +1049,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="A48" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -999,8 +1062,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="A49" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1010,8 +1075,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="A50" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1021,8 +1088,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="A51" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1032,10 +1101,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>2010</v>
       </c>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1045,8 +1114,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="A53" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1056,8 +1127,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="A54" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1067,8 +1140,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="A55" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1078,8 +1153,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="A56" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1089,8 +1166,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="A57" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1100,8 +1179,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="A58" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1111,8 +1192,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="inlineStr">
+      <c r="A59" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1122,8 +1205,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="A60" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1133,8 +1218,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
+      <c r="A61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1144,10 +1231,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>2011</v>
       </c>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1157,8 +1244,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="A63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1168,8 +1257,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="inlineStr">
+      <c r="A64" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1179,8 +1270,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="A65" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1190,8 +1283,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
+      <c r="A66" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1201,8 +1296,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="inlineStr">
+      <c r="A67" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1212,8 +1309,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
+      <c r="A68" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1223,8 +1322,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="A69" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1234,8 +1335,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
+      <c r="A70" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1245,8 +1348,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="A71" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1256,10 +1361,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>2012</v>
       </c>
-      <c r="B72" s="1" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1269,8 +1374,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
+      <c r="A73" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1280,8 +1387,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="A74" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1291,8 +1400,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="A75" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1302,8 +1413,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="inlineStr">
+      <c r="A76" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1313,8 +1426,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="A77" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1324,8 +1439,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="inlineStr">
+      <c r="A78" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1335,8 +1452,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="inlineStr">
+      <c r="A79" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1346,8 +1465,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="A80" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1357,8 +1478,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="inlineStr">
+      <c r="A81" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1368,10 +1491,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>2013</v>
       </c>
-      <c r="B82" s="1" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1381,8 +1504,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="inlineStr">
+      <c r="A83" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1392,8 +1517,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="inlineStr">
+      <c r="A84" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1403,8 +1530,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="inlineStr">
+      <c r="A85" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1414,8 +1543,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="inlineStr">
+      <c r="A86" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1425,8 +1556,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
+      <c r="A87" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1436,8 +1569,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
+      <c r="A88" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1447,8 +1582,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="inlineStr">
+      <c r="A89" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1458,8 +1595,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="inlineStr">
+      <c r="A90" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1469,8 +1608,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="inlineStr">
+      <c r="A91" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1480,10 +1621,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>2014</v>
       </c>
-      <c r="B92" s="1" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1493,8 +1634,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="inlineStr">
+      <c r="A93" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1504,8 +1647,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="inlineStr">
+      <c r="A94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1515,8 +1660,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="inlineStr">
+      <c r="A95" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1526,8 +1673,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="inlineStr">
+      <c r="A96" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1537,8 +1686,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="inlineStr">
+      <c r="A97" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1548,8 +1699,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="inlineStr">
+      <c r="A98" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1559,8 +1712,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="inlineStr">
+      <c r="A99" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1570,8 +1725,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="inlineStr">
+      <c r="A100" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1581,8 +1738,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="inlineStr">
+      <c r="A101" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1592,10 +1751,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>2015</v>
       </c>
-      <c r="B102" s="1" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1605,8 +1764,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="inlineStr">
+      <c r="A103" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1616,8 +1777,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="inlineStr">
+      <c r="A104" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1627,8 +1790,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="inlineStr">
+      <c r="A105" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1638,8 +1803,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="inlineStr">
+      <c r="A106" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1649,8 +1816,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="inlineStr">
+      <c r="A107" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1660,8 +1829,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="inlineStr">
+      <c r="A108" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1671,8 +1842,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n"/>
-      <c r="B109" s="1" t="inlineStr">
+      <c r="A109" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1682,8 +1855,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="inlineStr">
+      <c r="A110" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1693,8 +1868,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="inlineStr">
+      <c r="A111" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1704,10 +1881,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>2016</v>
       </c>
-      <c r="B112" s="1" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1717,8 +1894,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="inlineStr">
+      <c r="A113" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1728,8 +1907,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="inlineStr">
+      <c r="A114" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1739,8 +1920,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="inlineStr">
+      <c r="A115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1750,8 +1933,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
+      <c r="A116" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1761,8 +1946,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
+      <c r="A117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1772,8 +1959,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="inlineStr">
+      <c r="A118" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1783,8 +1972,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="inlineStr">
+      <c r="A119" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1794,8 +1985,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
+      <c r="A120" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1805,8 +1998,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="inlineStr">
+      <c r="A121" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1816,10 +2011,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>2017</v>
       </c>
-      <c r="B122" s="1" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1829,8 +2024,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="inlineStr">
+      <c r="A123" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1840,8 +2037,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n"/>
-      <c r="B124" s="1" t="inlineStr">
+      <c r="A124" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1851,8 +2050,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="inlineStr">
+      <c r="A125" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1862,8 +2063,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
+      <c r="A126" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1873,8 +2076,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="inlineStr">
+      <c r="A127" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1884,8 +2089,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="inlineStr">
+      <c r="A128" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -1895,8 +2102,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="A129" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -1906,8 +2115,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="inlineStr">
+      <c r="A130" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -1917,8 +2128,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="inlineStr">
+      <c r="A131" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -1928,10 +2141,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>2018</v>
       </c>
-      <c r="B132" s="1" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -1941,8 +2154,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="inlineStr">
+      <c r="A133" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -1952,8 +2167,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="inlineStr">
+      <c r="A134" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -1963,8 +2180,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
+      <c r="A135" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -1974,8 +2193,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
+      <c r="A136" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -1985,8 +2206,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="inlineStr">
+      <c r="A137" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -1996,8 +2219,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="inlineStr">
+      <c r="A138" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -2007,8 +2232,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="inlineStr">
+      <c r="A139" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -2018,8 +2245,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="inlineStr">
+      <c r="A140" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -2029,8 +2258,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="inlineStr">
+      <c r="A141" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -2040,10 +2271,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>2019</v>
       </c>
-      <c r="B142" s="1" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -2053,8 +2284,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n"/>
-      <c r="B143" s="1" t="inlineStr">
+      <c r="A143" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -2064,8 +2297,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="inlineStr">
+      <c r="A144" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -2075,8 +2310,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n"/>
-      <c r="B145" s="1" t="inlineStr">
+      <c r="A145" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -2086,8 +2323,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n"/>
-      <c r="B146" s="1" t="inlineStr">
+      <c r="A146" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -2097,8 +2336,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="inlineStr">
+      <c r="A147" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -2108,8 +2349,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="inlineStr">
+      <c r="A148" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -2119,8 +2362,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n"/>
-      <c r="B149" s="1" t="inlineStr">
+      <c r="A149" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -2130,8 +2375,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n"/>
-      <c r="B150" s="1" t="inlineStr">
+      <c r="A150" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -2141,8 +2388,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="inlineStr">
+      <c r="A151" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -2152,10 +2401,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>2020</v>
       </c>
-      <c r="B152" s="1" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -2165,8 +2414,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="inlineStr">
+      <c r="A153" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -2176,8 +2427,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n"/>
-      <c r="B154" s="1" t="inlineStr">
+      <c r="A154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -2187,8 +2440,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="inlineStr">
+      <c r="A155" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -2198,8 +2453,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="inlineStr">
+      <c r="A156" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -2209,8 +2466,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n"/>
-      <c r="B157" s="1" t="inlineStr">
+      <c r="A157" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -2220,8 +2479,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n"/>
-      <c r="B158" s="1" t="inlineStr">
+      <c r="A158" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -2231,8 +2492,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="inlineStr">
+      <c r="A159" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -2242,8 +2505,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="inlineStr">
+      <c r="A160" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -2253,8 +2518,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="inlineStr">
+      <c r="A161" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -2264,10 +2531,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>2021</v>
       </c>
-      <c r="B162" s="1" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -2277,8 +2544,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="inlineStr">
+      <c r="A163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -2288,8 +2557,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="inlineStr">
+      <c r="A164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -2299,8 +2570,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="inlineStr">
+      <c r="A165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -2310,8 +2583,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="inlineStr">
+      <c r="A166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -2321,8 +2596,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n"/>
-      <c r="B167" s="1" t="inlineStr">
+      <c r="A167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -2332,8 +2609,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="inlineStr">
+      <c r="A168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -2343,8 +2622,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="inlineStr">
+      <c r="A169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -2354,8 +2635,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n"/>
-      <c r="B170" s="1" t="inlineStr">
+      <c r="A170" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -2365,8 +2648,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n"/>
-      <c r="B171" s="1" t="inlineStr">
+      <c r="A171" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -2376,10 +2661,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>2022</v>
       </c>
-      <c r="B172" s="1" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>CIÊNCIAS AGRÁRIAS</t>
         </is>
@@ -2389,8 +2674,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="inlineStr">
+      <c r="A173" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>CIÊNCIAS BIOLÓGICAS</t>
         </is>
@@ -2400,8 +2687,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="inlineStr">
+      <c r="A174" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>CIÊNCIAS DA SAÚDE</t>
         </is>
@@ -2411,8 +2700,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="inlineStr">
+      <c r="A175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>CIÊNCIAS EXATAS E DA TERRA</t>
         </is>
@@ -2422,8 +2713,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="inlineStr">
+      <c r="A176" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>CIÊNCIAS HUMANAS</t>
         </is>
@@ -2433,8 +2726,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n"/>
-      <c r="B177" s="1" t="inlineStr">
+      <c r="A177" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>CIÊNCIAS SOCIAIS APLICADAS</t>
         </is>
@@ -2444,8 +2739,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="inlineStr">
+      <c r="A178" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>ENGENHARIAS</t>
         </is>
@@ -2455,8 +2752,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="inlineStr">
+      <c r="A179" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>Grande Area Não Informada</t>
         </is>
@@ -2466,8 +2765,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n"/>
-      <c r="B180" s="1" t="inlineStr">
+      <c r="A180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>LINGÜÍSTICA, LETRAS E ARTES</t>
         </is>
@@ -2477,8 +2778,10 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="inlineStr">
+      <c r="A181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>MULTIDISCIPLINAR</t>
         </is>
@@ -2488,26 +2791,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A92:A101"/>
-    <mergeCell ref="A162:A171"/>
-    <mergeCell ref="A172:A181"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A152:A161"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="A82:A91"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A122:A131"/>
-    <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A102:A111"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A142:A151"/>
-    <mergeCell ref="A22:A31"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>